--- a/data/trans_bre/P11_R-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/P11_R-Habitat-trans_bre.xlsx
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-1,2; 22,9</t>
+          <t>-2,01; 21,97</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>4,78; 28,46</t>
+          <t>5,77; 29,64</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-10,96; 14,03</t>
+          <t>-10,54; 13,89</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-16,89; 7,02</t>
+          <t>-16,47; 8,41</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-3,8; 128,05</t>
+          <t>-7,46; 123,88</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>18,9; 226,63</t>
+          <t>25,97; 252,41</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-32,72; 62,54</t>
+          <t>-32,04; 59,88</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-31,98; 20,05</t>
+          <t>-31,94; 23,97</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>2,44; 12,26</t>
+          <t>2,69; 12,81</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>9,23; 20,3</t>
+          <t>9,4; 20,15</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>8,63; 19,78</t>
+          <t>8,78; 19,18</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>5,76; 15,93</t>
+          <t>5,74; 15,67</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>9,98; 63,82</t>
+          <t>10,53; 67,17</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>41,66; 122,53</t>
+          <t>42,36; 119,83</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>40,61; 122,43</t>
+          <t>42,84; 117,73</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>17,28; 59,49</t>
+          <t>17,98; 60,13</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>6,94; 14,71</t>
+          <t>7,11; 14,4</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>7,29; 14,66</t>
+          <t>6,72; 14,63</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>8,05; 15,68</t>
+          <t>8,21; 15,43</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>10,14; 18,88</t>
+          <t>9,7; 18,58</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>40,01; 104,37</t>
+          <t>40,47; 105,28</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>32,25; 78,2</t>
+          <t>29,94; 79,91</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>40,61; 93,96</t>
+          <t>40,73; 89,26</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>38,81; 96,76</t>
+          <t>37,58; 93,12</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>10,15; 20,41</t>
+          <t>10,92; 20,63</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>10,69; 19,47</t>
+          <t>11,16; 19,08</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>4,85; 13,65</t>
+          <t>4,6; 13,3</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>4,9; 35,64</t>
+          <t>4,72; 37,7</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>45,87; 118,48</t>
+          <t>50,54; 121,52</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>71,07; 168,93</t>
+          <t>73,17; 166,56</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>24,94; 90,58</t>
+          <t>22,48; 86,14</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>19,8; 157,38</t>
+          <t>18,69; 167,22</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>6,65; 13,91</t>
+          <t>6,4; 13,9</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>6,11; 14,33</t>
+          <t>6,23; 14,39</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>5,3; 12,67</t>
+          <t>5,36; 12,93</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>7,51; 15,27</t>
+          <t>7,52; 15,42</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>33,27; 90,31</t>
+          <t>33,36; 89,02</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>26,11; 73,4</t>
+          <t>26,63; 75,6</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>25,72; 77,35</t>
+          <t>27,59; 79,56</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>24,08; 58,68</t>
+          <t>24,59; 58,54</t>
         </is>
       </c>
     </row>
@@ -1168,42 +1168,42 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>9,0; 13,21</t>
+          <t>8,9; 13,07</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>10,37; 14,48</t>
+          <t>10,53; 14,61</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>8,04; 12,11</t>
+          <t>8,19; 12,63</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>9,66; 18,34</t>
+          <t>9,49; 18,84</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>46,29; 75,37</t>
+          <t>47,02; 75,49</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>51,41; 80,49</t>
+          <t>53,65; 82,57</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>41,15; 68,72</t>
+          <t>41,85; 71,55</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>34,47; 73,24</t>
+          <t>33,57; 70,25</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P11_R-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/P11_R-Habitat-trans_bre.xlsx
@@ -566,7 +566,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -586,7 +586,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -610,7 +610,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -668,17 +668,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-2,01; 21,97</t>
+          <t>-2,13; 21,78</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>5,77; 29,64</t>
+          <t>5,55; 28,75</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-10,54; 13,89</t>
+          <t>-10,76; 14,48</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -688,17 +688,17 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-7,46; 123,88</t>
+          <t>-6,22; 124,66</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>25,97; 252,41</t>
+          <t>26,31; 239,07</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-32,04; 59,88</t>
+          <t>-31,07; 66,77</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -710,7 +710,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -768,17 +768,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>2,69; 12,81</t>
+          <t>2,38; 11,98</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>9,4; 20,15</t>
+          <t>9,64; 19,99</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>8,78; 19,18</t>
+          <t>8,82; 19,49</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -788,17 +788,17 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>10,53; 67,17</t>
+          <t>10,55; 63,17</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>42,36; 119,83</t>
+          <t>43,86; 120,23</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>42,84; 117,73</t>
+          <t>40,08; 116,55</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -810,7 +810,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -868,17 +868,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>7,11; 14,4</t>
+          <t>7,47; 14,55</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>6,72; 14,63</t>
+          <t>6,76; 14,83</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>8,21; 15,43</t>
+          <t>7,79; 15,41</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -888,17 +888,17 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>40,47; 105,28</t>
+          <t>43,47; 107,29</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>29,94; 79,91</t>
+          <t>29,68; 79,44</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>40,73; 89,26</t>
+          <t>37,76; 91,82</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -910,7 +910,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -968,17 +968,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>10,92; 20,63</t>
+          <t>10,88; 20,26</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>11,16; 19,08</t>
+          <t>10,6; 18,85</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>4,6; 13,3</t>
+          <t>5,12; 13,69</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -988,17 +988,17 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>50,54; 121,52</t>
+          <t>48,03; 117,9</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>73,17; 166,56</t>
+          <t>68,66; 161,81</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>22,48; 86,14</t>
+          <t>26,6; 89,91</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1068,17 +1068,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>6,4; 13,9</t>
+          <t>6,65; 13,84</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>6,23; 14,39</t>
+          <t>6,57; 14,32</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>5,36; 12,93</t>
+          <t>4,57; 12,17</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1088,17 +1088,17 @@
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>33,36; 89,02</t>
+          <t>35,13; 89,67</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>26,63; 75,6</t>
+          <t>27,3; 76,04</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>27,59; 79,56</t>
+          <t>23,16; 75,99</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -1168,17 +1168,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>8,9; 13,07</t>
+          <t>8,9; 13,03</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>10,53; 14,61</t>
+          <t>10,46; 14,69</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>8,19; 12,63</t>
+          <t>8,14; 12,28</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1188,17 +1188,17 @@
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>47,02; 75,49</t>
+          <t>46,81; 76,51</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>53,65; 82,57</t>
+          <t>52,03; 82,81</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>41,85; 71,55</t>
+          <t>41,43; 69,71</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">

--- a/data/trans_bre/P11_R-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/P11_R-Habitat-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -530,7 +530,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que el dolor dificultó su trabajo habitual las últimas 4 semanas</t>
+          <t>Población a la que el dolor le dificultó su trabajo habitual las últimas 4 semanas</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-2,13; 21,78</t>
+          <t>-1,2; 22,9</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>5,55; 28,75</t>
+          <t>4,78; 28,46</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-10,76; 14,48</t>
+          <t>-10,96; 14,03</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-16,47; 8,41</t>
+          <t>-16,89; 7,02</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-6,22; 124,66</t>
+          <t>-3,8; 128,05</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>26,31; 239,07</t>
+          <t>18,9; 226,63</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-31,07; 66,77</t>
+          <t>-32,72; 62,54</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-31,94; 23,97</t>
+          <t>-31,98; 20,05</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>2,38; 11,98</t>
+          <t>2,44; 12,26</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>9,64; 19,99</t>
+          <t>9,23; 20,3</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>8,82; 19,49</t>
+          <t>8,63; 19,78</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>5,74; 15,67</t>
+          <t>5,76; 15,93</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>10,55; 63,17</t>
+          <t>9,98; 63,82</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>43,86; 120,23</t>
+          <t>41,66; 122,53</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>40,08; 116,55</t>
+          <t>40,61; 122,43</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>17,98; 60,13</t>
+          <t>17,28; 59,49</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>7,47; 14,55</t>
+          <t>6,94; 14,71</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>6,76; 14,83</t>
+          <t>7,29; 14,66</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>7,79; 15,41</t>
+          <t>8,05; 15,68</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>9,7; 18,58</t>
+          <t>10,14; 18,88</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>43,47; 107,29</t>
+          <t>40,01; 104,37</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>29,68; 79,44</t>
+          <t>32,25; 78,2</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>37,76; 91,82</t>
+          <t>40,61; 93,96</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>37,58; 93,12</t>
+          <t>38,81; 96,76</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>10,88; 20,26</t>
+          <t>10,15; 20,41</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>10,6; 18,85</t>
+          <t>10,69; 19,47</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>5,12; 13,69</t>
+          <t>4,85; 13,65</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>4,72; 37,7</t>
+          <t>4,9; 35,64</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>48,03; 117,9</t>
+          <t>45,87; 118,48</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>68,66; 161,81</t>
+          <t>71,07; 168,93</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>26,6; 89,91</t>
+          <t>24,94; 90,58</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>18,69; 167,22</t>
+          <t>19,8; 157,38</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>6,65; 13,84</t>
+          <t>6,65; 13,91</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>6,57; 14,32</t>
+          <t>6,11; 14,33</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>4,57; 12,17</t>
+          <t>5,3; 12,67</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>7,52; 15,42</t>
+          <t>7,51; 15,27</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>35,13; 89,67</t>
+          <t>33,27; 90,31</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>27,3; 76,04</t>
+          <t>26,11; 73,4</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>23,16; 75,99</t>
+          <t>25,72; 77,35</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>24,59; 58,54</t>
+          <t>24,08; 58,68</t>
         </is>
       </c>
     </row>
@@ -1168,42 +1168,42 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>8,9; 13,03</t>
+          <t>9,0; 13,21</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>10,46; 14,69</t>
+          <t>10,37; 14,48</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>8,14; 12,28</t>
+          <t>8,04; 12,11</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>9,49; 18,84</t>
+          <t>9,66; 18,34</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>46,81; 76,51</t>
+          <t>46,29; 75,37</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>52,03; 82,81</t>
+          <t>51,41; 80,49</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>41,43; 69,71</t>
+          <t>41,15; 68,72</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>33,57; 70,25</t>
+          <t>34,47; 73,24</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P11_R-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/P11_R-Habitat-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -610,7 +610,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -620,42 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>9,84</t>
+          <t>7,72</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>16,87</t>
+          <t>15,16</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>1,42</t>
+          <t>12,01</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-3,87</t>
+          <t>9,27</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>39,64%</t>
+          <t>34,89%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>98,23%</t>
+          <t>80,29%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>4,93%</t>
+          <t>58,64%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>-8,83%</t>
+          <t>30,04%</t>
         </is>
       </c>
     </row>
@@ -668,49 +668,49 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-1,2; 22,9</t>
+          <t>3,45; 12,4</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>4,78; 28,46</t>
+          <t>10,36; 20,01</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-10,96; 14,03</t>
+          <t>7,03; 16,7</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-16,89; 7,02</t>
+          <t>4,42; 14,03</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-3,8; 128,05</t>
+          <t>14,54; 63,12</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>18,9; 226,63</t>
+          <t>47,19; 117,06</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-32,72; 62,54</t>
+          <t>31,3; 91,79</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-31,98; 20,05</t>
+          <t>13,18; 50,03</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -720,42 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>7,31</t>
+          <t>11,09</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>14,82</t>
+          <t>10,74</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>14,19</t>
+          <t>11,6</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>10,94</t>
+          <t>18,68</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>33,88%</t>
+          <t>71,12%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>77,16%</t>
+          <t>51,8%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>75,67%</t>
+          <t>62,09%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>37,75%</t>
+          <t>96,93%</t>
         </is>
       </c>
     </row>
@@ -768,49 +768,49 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>2,44; 12,26</t>
+          <t>6,94; 14,71</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>9,23; 20,3</t>
+          <t>7,29; 14,66</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>8,63; 19,78</t>
+          <t>8,05; 15,68</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>5,76; 15,93</t>
+          <t>12,5; 28,99</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>9,98; 63,82</t>
+          <t>40,01; 104,37</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>41,66; 122,53</t>
+          <t>32,25; 78,2</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>40,61; 122,43</t>
+          <t>40,61; 93,96</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>17,28; 59,49</t>
+          <t>50,04; 290,06</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -820,42 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>11,09</t>
+          <t>15,75</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>10,74</t>
+          <t>14,96</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>11,6</t>
+          <t>9,23</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>14,16</t>
+          <t>21,35</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>71,12%</t>
+          <t>81,56%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>51,8%</t>
+          <t>112,1%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>62,09%</t>
+          <t>53,33%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>60,84%</t>
+          <t>89,15%</t>
         </is>
       </c>
     </row>
@@ -868,49 +868,49 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>6,94; 14,71</t>
+          <t>10,15; 20,41</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>7,29; 14,66</t>
+          <t>10,69; 19,47</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>8,05; 15,68</t>
+          <t>4,85; 13,65</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>10,14; 18,88</t>
+          <t>4,45; 48,04</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>40,01; 104,37</t>
+          <t>45,87; 118,48</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>32,25; 78,2</t>
+          <t>71,07; 168,93</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>40,61; 93,96</t>
+          <t>24,94; 90,58</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>38,81; 96,76</t>
+          <t>18,53; 212,85</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -920,42 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>15,75</t>
+          <t>10,15</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>14,96</t>
+          <t>10,36</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>9,23</t>
+          <t>8,63</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>15,14</t>
+          <t>9,2</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>81,56%</t>
+          <t>59,4%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>112,1%</t>
+          <t>48,68%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>53,33%</t>
+          <t>47,84%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>62,11%</t>
+          <t>32,08%</t>
         </is>
       </c>
     </row>
@@ -968,49 +968,49 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>10,15; 20,41</t>
+          <t>6,65; 13,91</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>10,69; 19,47</t>
+          <t>6,11; 14,33</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>4,85; 13,65</t>
+          <t>5,3; 12,67</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>4,9; 35,64</t>
+          <t>1,82; 14,22</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>45,87; 118,48</t>
+          <t>33,27; 90,31</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>71,07; 168,93</t>
+          <t>26,11; 73,4</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>24,94; 90,58</t>
+          <t>25,72; 77,35</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>19,8; 157,38</t>
+          <t>7,2; 52,53</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1020,42 +1020,42 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>10,15</t>
+          <t>11,02</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>10,36</t>
+          <t>12,46</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>8,63</t>
+          <t>10,25</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>11,4</t>
+          <t>15,33</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>59,4%</t>
+          <t>60,61%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>48,68%</t>
+          <t>66,03%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>47,84%</t>
+          <t>55,26%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>40,15%</t>
+          <t>61,63%</t>
         </is>
       </c>
     </row>
@@ -1068,154 +1068,54 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>6,65; 13,91</t>
+          <t>9,0; 13,21</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>6,11; 14,33</t>
+          <t>10,37; 14,48</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>5,3; 12,67</t>
+          <t>8,04; 12,11</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>7,51; 15,27</t>
+          <t>9,82; 26,41</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>33,27; 90,31</t>
+          <t>46,29; 75,37</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>26,11; 73,4</t>
+          <t>51,41; 80,49</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>25,72; 77,35</t>
+          <t>41,15; 68,72</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>24,08; 58,68</t>
+          <t>36,08; 125,41</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B14" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>11,02</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>12,46</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>10,25</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>12,58</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>60,61%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>66,03%</t>
-        </is>
-      </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>55,26%</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>47,44%</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n"/>
-      <c r="B15" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>9,0; 13,21</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>10,37; 14,48</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>8,04; 12,11</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>9,66; 18,34</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>46,29; 75,37</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>51,41; 80,49</t>
-        </is>
-      </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>41,15; 68,72</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>34,47; 73,24</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A14" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="8">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
@@ -1224,7 +1124,6 @@
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/trans_bre/P11_R-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/P11_R-Habitat-trans_bre.xlsx
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>3,45; 12,4</t>
+          <t>3,01; 12,47</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>10,36; 20,01</t>
+          <t>10,3; 19,93</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>7,03; 16,7</t>
+          <t>7,51; 17,14</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>4,42; 14,03</t>
+          <t>4,84; 13,87</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>14,54; 63,12</t>
+          <t>13,12; 62,6</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>47,19; 117,06</t>
+          <t>48,31; 115,18</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>31,3; 91,79</t>
+          <t>32,8; 94,94</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>13,18; 50,03</t>
+          <t>13,83; 49,53</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>6,94; 14,71</t>
+          <t>7,54; 15,26</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>7,29; 14,66</t>
+          <t>6,59; 14,58</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>8,05; 15,68</t>
+          <t>7,93; 15,51</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>12,5; 28,99</t>
+          <t>12,95; 28,23</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>40,01; 104,37</t>
+          <t>43,69; 109,19</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>32,25; 78,2</t>
+          <t>29,14; 77,11</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>40,61; 93,96</t>
+          <t>37,8; 89,88</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>50,04; 290,06</t>
+          <t>51,74; 257,55</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>10,15; 20,41</t>
+          <t>10,96; 20,81</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>10,69; 19,47</t>
+          <t>10,55; 18,98</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>4,85; 13,65</t>
+          <t>4,97; 13,56</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>4,45; 48,04</t>
+          <t>5,06; 48,03</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>45,87; 118,48</t>
+          <t>48,96; 118,85</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>71,07; 168,93</t>
+          <t>67,14; 167,11</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>24,94; 90,58</t>
+          <t>25,36; 86,71</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>18,53; 212,85</t>
+          <t>20,37; 218,68</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>6,65; 13,91</t>
+          <t>6,76; 13,8</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>6,11; 14,33</t>
+          <t>6,42; 14,28</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>5,3; 12,67</t>
+          <t>4,66; 12,5</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>1,82; 14,22</t>
+          <t>1,14; 13,69</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>33,27; 90,31</t>
+          <t>35,6; 92,59</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>26,11; 73,4</t>
+          <t>27,92; 74,06</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>25,72; 77,35</t>
+          <t>23,0; 78,97</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>7,2; 52,53</t>
+          <t>4,64; 51,12</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>9,0; 13,21</t>
+          <t>8,95; 13,1</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>10,37; 14,48</t>
+          <t>10,29; 14,65</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>8,04; 12,11</t>
+          <t>8,33; 12,34</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>9,82; 26,41</t>
+          <t>9,95; 25,86</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>46,29; 75,37</t>
+          <t>46,65; 76,52</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>51,41; 80,49</t>
+          <t>51,66; 81,58</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>41,15; 68,72</t>
+          <t>42,65; 70,47</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>36,08; 125,41</t>
+          <t>37,78; 118,44</t>
         </is>
       </c>
     </row>
